--- a/biology/Médecine/Nicolas_Blondlot/Nicolas_Blondlot.xlsx
+++ b/biology/Médecine/Nicolas_Blondlot/Nicolas_Blondlot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nicolas Blondlot, né le 4 février 1808 à Charmes dans les Vosges et mort le 7 janvier 1877 à Nancy, est un médecin et chimiste français. Expert en toxicologie, il a fait bénéficier les expertises judiciaires des connaissances scientifiques de son temps, notamment par l'emploi du microscope dans l'analyse des taches de sang[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nicolas Blondlot, né le 4 février 1808 à Charmes dans les Vosges et mort le 7 janvier 1877 à Nancy, est un médecin et chimiste français. Expert en toxicologie, il a fait bénéficier les expertises judiciaires des connaissances scientifiques de son temps, notamment par l'emploi du microscope dans l'analyse des taches de sang.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nicolas Blondot commence ses études médicales à Nancy et les poursuit à Paris[2]. Il obtient son diplôme de docteur en médecine en 1833 à l'âge de 25 ans. De retour à Nancy, il étudie la physiologie expérimentale et la chimie. 
-Professeur de chimie à l'école de médecine, il occupe la chaire de chimie médicale et toxicologie. Il est alors considéré comme « une des gloires de l’École de médecine de Nancy »[3]. Il est élu à l'Académie Stanislas en 1850, est nommé chevalier de la Légion d'honneur le 13 août 1861, et reçoit le Prix Montyon en 1870[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nicolas Blondot commence ses études médicales à Nancy et les poursuit à Paris. Il obtient son diplôme de docteur en médecine en 1833 à l'âge de 25 ans. De retour à Nancy, il étudie la physiologie expérimentale et la chimie. 
+Professeur de chimie à l'école de médecine, il occupe la chaire de chimie médicale et toxicologie. Il est alors considéré comme « une des gloires de l’École de médecine de Nancy ». Il est élu à l'Académie Stanislas en 1850, est nommé chevalier de la Légion d'honneur le 13 août 1861, et reçoit le Prix Montyon en 1870.
 Il est le père du physicien René Blondlot.
 </t>
         </is>
